--- a/data/ch06/xlwings_test_01.xlsx
+++ b/data/ch06/xlwings_test_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPyExcel\data\ch06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3477D004-0B0E-4A36-9497-712308E921E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52EF384E-0E85-4F31-8F30-DAF4DE9D3158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10650" yWindow="6330" windowWidth="9615" windowHeight="5865" xr2:uid="{5AE0708A-1CA0-439A-8CD1-05AB2A676610}"/>
+    <workbookView xWindow="8670" yWindow="4410" windowWidth="14040" windowHeight="9675" xr2:uid="{CFCB8091-15C1-47DA-9BEF-F9DA9EBCE401}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,9 +30,6 @@
     <t>안녕</t>
   </si>
   <si>
-    <t>합계</t>
-  </si>
-  <si>
     <t>데이터 1</t>
   </si>
   <si>
@@ -46,6 +37,9 @@
   </si>
   <si>
     <t>데이터 3</t>
+  </si>
+  <si>
+    <t>합계</t>
   </si>
 </sst>
 </file>
@@ -408,12 +402,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951F9956-160F-46B5-803F-0690948C943D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8D3D53-E04C-4691-987E-1F515B10EC01}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -422,7 +414,7 @@
         <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>10</v>
@@ -433,7 +425,7 @@
         <v>3.14</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -444,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -452,7 +444,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <f>SUM(D1:D3)</f>
